--- a/biology/Zoologie/Bec-en-croc_de_Cuba/Bec-en-croc_de_Cuba.xlsx
+++ b/biology/Zoologie/Bec-en-croc_de_Cuba/Bec-en-croc_de_Cuba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chondrohierax wilsonii
 Le Bec-en-croc de Cuba (Chondrohierax wilsonii), anciennement connu en tant que Milan de Cuba, est une espèce d'oiseaux appartenant à la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique à Cuba.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui, il est confiné à la forêt montagnarde où il se nourrit principalement d'escargots arboricoles et de limaces.
 </t>
@@ -574,7 +590,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déclin est principalement attribué à la destruction et à l'altération de l'habitat causées par l'exploitation forestière et la conversion agricole. Les agriculteurs persécutent l'espèce parce qu'ils croient (à tort) qu'elle se nourrit de volaille (Gálvez-Aguilera et Berovides-Alvarez 1997, Raffaele et al. 1998). 
 </t>
@@ -605,7 +623,9 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa population est estimée à moins de 250 individus matures.
 </t>
